--- a/data/Behavioral/description/Physical.xlsx
+++ b/data/Behavioral/description/Physical.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Research/Healthy Brain Network/Data Sharing/Release4/Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="460" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="19220" yWindow="460" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -86,9 +86,6 @@
     <t>0-1</t>
   </si>
   <si>
-    <t>0= Male, 1= Female</t>
-  </si>
-  <si>
     <t>Height (in)</t>
   </si>
   <si>
@@ -108,6 +105,21 @@
   </si>
   <si>
     <t>Waist circumference (in)</t>
+  </si>
+  <si>
+    <t>1= Male, 0= Female</t>
+  </si>
+  <si>
+    <t>BMI_Range</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Underweight, Healthy Weight, Overweight, Obese</t>
+  </si>
+  <si>
+    <t>BMI Range, based on BMI growth curves normed for children, accounting for age and sex</t>
   </si>
 </sst>
 </file>
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,12 +651,12 @@
         <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -655,7 +667,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -666,7 +678,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -677,7 +689,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -688,7 +700,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -702,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -710,13 +722,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
